--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,10 +524,10 @@
         <v>1500</v>
       </c>
       <c r="E2" s="3">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G2" s="3">
         <v>160</v>
@@ -565,10 +565,10 @@
         <v>2000</v>
       </c>
       <c r="E3" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
         <v>200</v>
@@ -606,10 +606,10 @@
         <v>500</v>
       </c>
       <c r="E4" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F4" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3">
         <v>80</v>
@@ -647,10 +647,10 @@
         <v>2500</v>
       </c>
       <c r="E5" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G5" s="3">
         <v>120</v>
@@ -688,10 +688,10 @@
         <v>5000</v>
       </c>
       <c r="E6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G6" s="3">
         <v>10</v>
@@ -729,7 +729,7 @@
         <v>1000</v>
       </c>
       <c r="E7" s="3">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -770,10 +770,10 @@
         <v>2000</v>
       </c>
       <c r="E8" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="G8" s="3">
         <v>140</v>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
